--- a/biology/Médecine/Nerf_axillaire/Nerf_axillaire.xlsx
+++ b/biology/Médecine/Nerf_axillaire/Nerf_axillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf axillaire (ou nerf circonflexe) est un nerf sensitivo-moteur du membre supérieur chez l'Homme. C'est le nerf de l'abduction du bras et accessoirement de la rotation latérale.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf axillaire nait du tronc secondaire postérieur du plexus brachial même temps que le nerf radial derrière le muscle petit pectoral. Ses racines sont C5 et C6.
 </t>
@@ -542,17 +556,14 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf axillaire descend dans le creux axillaire  en avant du muscle subscapulaire et derrière l'artère axillaire.
 Il sort de la cavité axillaire en passant entre en haut le muscle subscapulaire, en bas le muscle grand rond, en dedans le long chef du muscle triceps brachial et en dehors le col chirurgical de l'humérus.
 Il contourne le col chirurgical avec l'artère circonflexe postérieure de l'humérus et se termine sur la face postérieure de l'épaule en se divisant en une branche antérieure, une branche postérieure et une collatérale au long chef du triceps brachial.
 Le tronc du nerf axillaire dégage un filament articulaire qui pénètre dans l'articulation gléno-humérale sous le muscle subscapulaire
-Branche antérieure
-La branche antérieure s'enroule autour du col chirurgical de l'humérus, sous le muscle deltoïde, avec les vaisseaux circonflexes huméraux postérieurs. Il se poursuit jusqu'au bord antérieur du deltoïde pour assurer son innervation motrice. La branche antérieure dégage également quelques petites branches cutanées, qui traversent le muscle et alimentent la peau qui la recouvre.
-Branche postérieure
-La branche postérieure donne le nerf du muscle petit rond et innerve la partie postérieure du muscle deltoïde.
-La branche postérieure perce le fascia brachial et se continue par le nerf cutané brachial latéro-supérieur qui suit le bord postérieur du muscle deltoïde.
 </t>
         </is>
       </c>
@@ -578,10 +589,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Branche antérieure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La branche antérieure s'enroule autour du col chirurgical de l'humérus, sous le muscle deltoïde, avec les vaisseaux circonflexes huméraux postérieurs. Il se poursuit jusqu'au bord antérieur du deltoïde pour assurer son innervation motrice. La branche antérieure dégage également quelques petites branches cutanées, qui traversent le muscle et alimentent la peau qui la recouvre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_axillaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_axillaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Branche postérieure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La branche postérieure donne le nerf du muscle petit rond et innerve la partie postérieure du muscle deltoïde.
+La branche postérieure perce le fascia brachial et se continue par le nerf cutané brachial latéro-supérieur qui suit le bord postérieur du muscle deltoïde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_axillaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_axillaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf axillaire est moteur de l'abduction du bras par :
 le muscle deltoïde,
@@ -592,31 +680,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Nerf_axillaire</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nerf_axillaire</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La proximité du nerf axillaire avec la partie proximale de l'humérus le rend vulnérable dans les traumatismes de l'épaule (luxation gléno-humérale, fracture proximale de l'humérus).
 La fonction du nerf axillaire peut également être altérée par une compression axillaire, utilisation de béquille axillaire par exemple).
